--- a/public/sales_reports/TickScape-sales-report-2025-02-27-2025-02-28.xlsx
+++ b/public/sales_reports/TickScape-sales-report-2025-02-27-2025-02-28.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Sales Report from 2025-02-27 to 2025-02-28</t>
   </si>
@@ -44,90 +44,6 @@
   </si>
   <si>
     <t>Order Date</t>
-  </si>
-  <si>
-    <t>6bbb9d69-e4d7-4db9-9015-a16ff3546978</t>
-  </si>
-  <si>
-    <t>67bdd943857e96f943f61fc6</t>
-  </si>
-  <si>
-    <t>Delivered</t>
-  </si>
-  <si>
-    <t>Online Payment</t>
-  </si>
-  <si>
-    <t>2025-02-28T17:23:35.265Z</t>
-  </si>
-  <si>
-    <t>c1ce7237-9bfe-45fa-a9fc-700a248815fb</t>
-  </si>
-  <si>
-    <t>67bdcd826510cc8dd9751f8f</t>
-  </si>
-  <si>
-    <t>Order Placed</t>
-  </si>
-  <si>
-    <t>Cash on Delivery</t>
-  </si>
-  <si>
-    <t>2025-02-27T07:40:46.454Z</t>
-  </si>
-  <si>
-    <t>0f04f121-5f73-4c46-8af6-9b50974768b0</t>
-  </si>
-  <si>
-    <t>2025-02-27T07:36:49.906Z</t>
-  </si>
-  <si>
-    <t>08e0354c-a04a-426e-9b26-e83d61060909</t>
-  </si>
-  <si>
-    <t>2025-02-27T08:44:01.304Z</t>
-  </si>
-  <si>
-    <t>c92f703a-0d0c-4111-b314-9a605002c9e1</t>
-  </si>
-  <si>
-    <t>2025-02-27T08:46:48.214Z</t>
-  </si>
-  <si>
-    <t>cc8583e5-d872-473e-ae79-e94711e7bd7a</t>
-  </si>
-  <si>
-    <t>67bdcd1e6510cc8dd9751f81</t>
-  </si>
-  <si>
-    <t>2025-02-27T12:04:34.011Z</t>
-  </si>
-  <si>
-    <t>2c18181d-d4f0-4150-a8ae-4a367048ddf7</t>
-  </si>
-  <si>
-    <t>Wallet</t>
-  </si>
-  <si>
-    <t>2025-02-27T09:24:35.398Z</t>
-  </si>
-  <si>
-    <t>1522273d-629a-40a1-86af-7af28adbff45</t>
-  </si>
-  <si>
-    <t>2025-02-27T13:45:50.102Z</t>
-  </si>
-  <si>
-    <t>b3ecb37e-c3f3-4e30-a049-8884fffd2e89</t>
-  </si>
-  <si>
-    <t>2025-02-27T12:04:51.593Z</t>
-  </si>
-  <si>
-    <t>e2933a16-ee6d-42bf-b7d4-f120a7e77d72</t>
-  </si>
-  <si>
-    <t>2025-02-27T08:27:24.846Z</t>
   </si>
   <si>
     <t>Summary</t>
@@ -152,9 +68,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
@@ -212,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -220,7 +133,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -564,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="9" width="15" customWidth="1"/>
@@ -617,363 +529,43 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
-        <v>4705</v>
-      </c>
-      <c r="D4">
-        <v>846.9</v>
-      </c>
-      <c r="E4">
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>50</v>
-      </c>
-      <c r="G4">
-        <v>5601.9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>3200</v>
-      </c>
-      <c r="D5">
+      <c r="B7">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="C7">
         <v>0</v>
-      </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <v>4402</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>3200</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>50</v>
-      </c>
-      <c r="G6">
-        <v>4402</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>3400</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>50</v>
-      </c>
-      <c r="G7">
-        <v>3962</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>1700</v>
-      </c>
-      <c r="D8">
-        <v>306</v>
-      </c>
-      <c r="E8">
         <v>0</v>
-      </c>
-      <c r="F8">
-        <v>50</v>
-      </c>
-      <c r="G8">
-        <v>2056</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9">
-        <v>1700</v>
-      </c>
-      <c r="D9">
-        <v>306</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>50</v>
-      </c>
-      <c r="G9">
-        <v>2056</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>1700</v>
-      </c>
-      <c r="D10">
-        <v>306</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>50</v>
-      </c>
-      <c r="G10">
-        <v>2056</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11">
-        <v>1700</v>
-      </c>
-      <c r="D11">
-        <v>306</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>50</v>
-      </c>
-      <c r="G11">
-        <v>2056</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12">
-        <v>1700</v>
-      </c>
-      <c r="D12">
-        <v>306</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>50</v>
-      </c>
-      <c r="G12">
-        <v>2056</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>1700</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>50</v>
-      </c>
-      <c r="G13">
-        <v>2056</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>74650.8</v>
-      </c>
-      <c r="B17">
-        <v>35</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>700</v>
-      </c>
-      <c r="E17">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
